--- a/InTar.xlsx
+++ b/InTar.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="80">
+  <si>
+    <t>EA PUTAWAY</t>
+  </si>
   <si>
     <t>FloorLoad Pieces: &gt;3000</t>
   </si>
@@ -31,6 +34,9 @@
     <t>FloorLoad Up to: 1000</t>
   </si>
   <si>
+    <t>IN LABELING CS</t>
+  </si>
+  <si>
     <t>LZ &gt; 1000</t>
   </si>
   <si>
@@ -73,12 +79,21 @@
     <t>SORT &amp; CONFIRM M</t>
   </si>
   <si>
+    <t>SortConfTest</t>
+  </si>
+  <si>
     <t>UNLD PLTZD</t>
   </si>
   <si>
     <t>UNLD UNIT</t>
   </si>
   <si>
+    <t>UNLD UNIT ALL</t>
+  </si>
+  <si>
+    <t>Each Putaway</t>
+  </si>
+  <si>
     <t>Unload QTY &gt;3000</t>
   </si>
   <si>
@@ -94,6 +109,9 @@
     <t>Unload QTY &lt;1000</t>
   </si>
   <si>
+    <t>Inbound Case Labeling</t>
+  </si>
+  <si>
     <t>Unload QTY &gt; 1000</t>
   </si>
   <si>
@@ -127,12 +145,18 @@
     <t>SORT AND CONFIRM M</t>
   </si>
   <si>
+    <t>Sort And confirm not Lot</t>
+  </si>
+  <si>
     <t>Unload Palletized</t>
   </si>
   <si>
     <t>Unload Unit</t>
   </si>
   <si>
+    <t>Each Unit Putaway</t>
+  </si>
+  <si>
     <t>Unloading Floor Loaded Cartons &gt; 3000</t>
   </si>
   <si>
@@ -154,7 +178,13 @@
     <t>SORT AND CONFIRM 3 + SKUS</t>
   </si>
   <si>
+    <t>Sort And confirm not Lot based</t>
+  </si>
+  <si>
     <t>Unload Per Case</t>
+  </si>
+  <si>
+    <t>Unload Per Unit All</t>
   </si>
   <si>
     <t>WarehouseReceipt</t>
@@ -581,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,22 +648,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -641,25 +659,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -670,22 +688,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -693,22 +711,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -719,25 +737,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -748,22 +766,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -771,25 +789,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -800,22 +818,22 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -823,22 +841,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -849,25 +867,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -878,22 +896,22 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -901,25 +919,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -930,19 +948,22 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -950,22 +971,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -973,19 +982,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -996,22 +1005,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1019,22 +1028,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1042,19 +1051,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -1065,22 +1074,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1088,22 +1097,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1111,19 +1120,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -1134,19 +1143,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1157,19 +1166,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -1180,19 +1189,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1203,25 +1212,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1232,22 +1238,19 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1258,16 +1261,19 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1278,19 +1284,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -1301,22 +1310,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1324,22 +1333,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1347,19 +1356,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -1370,22 +1379,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1393,25 +1402,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1419,22 +1425,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -1445,22 +1448,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1471,22 +1474,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H37">
         <v>4</v>
@@ -1497,22 +1500,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1520,22 +1526,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1543,19 +1552,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -1566,19 +1575,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1589,22 +1598,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H42">
         <v>4</v>
@@ -1618,16 +1624,16 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1641,22 +1647,99 @@
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="E44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" t="s">
-        <v>59</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
